--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19844090</v>
+        <v>19844146</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1645408213162.308</v>
+        <v>1640248960295.137</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>219447239944.2114</v>
+        <v>219789619617.6456</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>144472528344.4948</v>
+        <v>144572826467.6962</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>125128539404.0488</v>
+        <v>125186112383.7746</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>87075359850.57246</v>
+        <v>87021319706.73978</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>512293807.5507926</v>
+        <v>512293263.8307307</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>64173621326.06544</v>
+        <v>64516403178.55221</v>
       </c>
     </row>
     <row r="8">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60242525341.88815</v>
+        <v>60236504303.70195</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60263652571.4768</v>
+        <v>60276486109.2381</v>
       </c>
     </row>
     <row r="9">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148644126383.7052</v>
+        <v>148646376383.7053</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25192339632.77584</v>
+        <v>25302161517.13152</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23723258891.01</v>
+        <v>23656821536.72506</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94994605853.76372</v>
+        <v>94994333997.78676</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>21915590545.01772</v>
+        <v>22056184654.80664</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9367578.04514548</v>
+        <v>9369845.35495159</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>17013824733.87183</v>
+        <v>16957421840.39142</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10598806295.64475</v>
+        <v>10651186259.291</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2484528578.654807</v>
+        <v>2484542062.423414</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9472862912.832815</v>
+        <v>9529023335.024099</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8958597212.633591</v>
+        <v>8954351677.307913</v>
       </c>
     </row>
     <row r="16">
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>923836969.9</v>
+        <v>923836227.9</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8901839290.092813</v>
+        <v>8872243688.051298</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30787178407.49416</v>
+        <v>30787176939.11807</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8265176800.009464</v>
+        <v>8290250469.957115</v>
       </c>
     </row>
     <row r="18">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>414844783.0787662</v>
+        <v>414849355.3863751</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8051635600.150704</v>
+        <v>7973734405.471679</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7482713340.319256</v>
+        <v>7505387941.352562</v>
       </c>
     </row>
     <row r="20">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>589250822785832.4</v>
+        <v>589250806511191.1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7426139533.025967</v>
+        <v>7398849788.831738</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7199344865.450047</v>
+        <v>7208477074.015612</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6524123028.593897</v>
+        <v>6522591761.038876</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6207093548.684222</v>
+        <v>6228680426.721601</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6155101635.752826</v>
+        <v>6141160834.478655</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6075993196.303693</v>
+        <v>6107873472.734072</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19849115.625</v>
+        <v>19849190.625</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6056506018.194562</v>
+        <v>6021817337.073693</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5500491881.54157</v>
+        <v>5481735598.327324</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5361791683.717277</v>
+        <v>5363979615.630922</v>
       </c>
     </row>
     <row r="29">
@@ -1238,7 +1238,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5247255782.710276</v>
+        <v>5247294871.915874</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5246902513.331624</v>
+        <v>5247412114.987248</v>
       </c>
     </row>
     <row r="30">
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6773814332.260494</v>
+        <v>6773820584.991654</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5167207446.90474</v>
+        <v>5229989792.725521</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4201769039.529313</v>
+        <v>4233479417.264953</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4008181468.86502</v>
+        <v>4001361012.736164</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3749159627.741323</v>
+        <v>3744779234.83471</v>
       </c>
     </row>
     <row r="34">
@@ -1378,7 +1378,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>604031596.593968</v>
+        <v>604052367.6645604</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3195108080.106734</v>
+        <v>3243768059.387003</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3160198965.96925</v>
+        <v>3159685052.956359</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2967439521.620103</v>
+        <v>2970917462.368182</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2912819056.666005</v>
+        <v>2907341998.881588</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2769337703.796009</v>
+        <v>2789594008.385526</v>
       </c>
     </row>
     <row r="39">
@@ -1526,18 +1526,18 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2699772651.669368</v>
+        <v>2666121460.414757</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1546,26 +1546,26 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>482076932.8747825</v>
+        <v>2588088088.167816</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2591823755.868845</v>
+        <v>2583488274.148527</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1574,15 +1574,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2588088088.167816</v>
+        <v>482076964.6058819</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2583960590.510273</v>
+        <v>2582013199.236028</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2527930536.210728</v>
+        <v>2532221474.755383</v>
       </c>
     </row>
     <row r="43">
@@ -1630,7 +1630,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>151321540.2914661</v>
+        <v>151323700.0354662</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2518538271.218329</v>
+        <v>2521872817.797315</v>
       </c>
     </row>
     <row r="44">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15093850.10196759</v>
+        <v>15094302.18303862</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2480477522.312798</v>
+        <v>2495770052.606678</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2125677493.863783</v>
+        <v>2128549485.638742</v>
       </c>
     </row>
     <row r="46">
@@ -1714,7 +1714,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>199999429.103735</v>
+        <v>199999429.080876</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1722,18 +1722,18 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2035525360.106597</v>
+        <v>2043021774.274465</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1742,26 +1742,26 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>85985041177</v>
+        <v>5285937500</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1964184580.03706</v>
+        <v>1971238836.024046</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1770,26 +1770,26 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>8534124</v>
+        <v>85985041177</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1945000796.773782</v>
+        <v>1957221777.680274</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1798,26 +1798,26 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>5285937500</v>
+        <v>8534124</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1944153476.284928</v>
+        <v>1954152336.987284</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1826,26 +1826,26 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>579488884.7562951</v>
+        <v>85826705.19218351</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1914708485.38589</v>
+        <v>1915660703.827857</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1854,15 +1854,15 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>85826628.27673994</v>
+        <v>580696175.3830049</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1912748173.46354</v>
+        <v>1909245121.742149</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1827864130.96871</v>
+        <v>1823232881.217984</v>
       </c>
     </row>
     <row r="53">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>646143249</v>
+        <v>646157090</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1783390606.682522</v>
+        <v>1792330192.613938</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1683788927.313354</v>
+        <v>1684291847.436859</v>
       </c>
     </row>
     <row r="55">
@@ -1966,7 +1966,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25942485466.10235</v>
+        <v>25943375617.3953</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1673393918.462027</v>
+        <v>1668570286.4069</v>
       </c>
     </row>
     <row r="56">
@@ -1994,7 +1994,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8530769996.221781</v>
+        <v>8530799349.038621</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1558994329.648113</v>
+        <v>1550235234.23301</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1540384598.042386</v>
+        <v>1544694415.87229</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1474887064.736172</v>
+        <v>1469087030.127876</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1409566141.783716</v>
+        <v>1441217320.271582</v>
       </c>
     </row>
     <row r="60">
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>258745395</v>
+        <v>258757414</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1367199664.467321</v>
+        <v>1365723645.144123</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1358654517.041746</v>
+        <v>1358814431.505489</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1300386060.123636</v>
+        <v>1308274238.493673</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1220425171.5659</v>
+        <v>1224294268.27457</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1193721337.899964</v>
+        <v>1199234070.57269</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1083807750.822358</v>
+        <v>1080840054.789814</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1069253786.784113</v>
+        <v>1061427306.741296</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1043799394.384574</v>
+        <v>1048917900.241988</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>971463395.1974064</v>
+        <v>962710485.1178218</v>
       </c>
     </row>
     <row r="69">
@@ -2358,7 +2358,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1214526120.034464</v>
+        <v>1214684893.749747</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>954345596.6503832</v>
+        <v>956603267.4592154</v>
       </c>
     </row>
     <row r="70">
@@ -2386,7 +2386,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1519229293.83264</v>
+        <v>1519244275.49944</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2394,18 +2394,18 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>951776872.6014463</v>
+        <v>951106085.1923677</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>wrapped bnb</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2414,26 +2414,26 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1582884.53984804</v>
+        <v>1555739230.6061</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>950892872.421708</v>
+        <v>923870272.6281277</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual usd</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2442,26 +2442,26 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1555708008.4996</v>
+        <v>898876668.3664446</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>939381108.326044</v>
+        <v>896443286.330442</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>usual usd</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2470,26 +2470,26 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>899129894.3078742</v>
+        <v>77894175221082.55</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>897098518.101324</v>
+        <v>889663158.2465116</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>bonk</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>77894175221082.55</v>
+        <v>381867255.144574</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>885864781.8351067</v>
+        <v>880519521.9775759</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>876926157.9498842</v>
+        <v>880303895.7792685</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>872215392.1541442</v>
+        <v>874659863.1400057</v>
       </c>
     </row>
     <row r="77">
@@ -2590,18 +2590,18 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>870536980.8628373</v>
+        <v>873766230.7869549</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2610,26 +2610,26 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>381867255.144574</v>
+        <v>12072738</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>864185142.9753559</v>
+        <v>842221118.0749571</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>theta network</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2638,26 +2638,26 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>12072738</v>
+        <v>1000000000</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>843429263.2225834</v>
+        <v>823678060.5475427</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>theta network</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2666,26 +2666,26 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>1000000000</v>
+        <v>60983663777.01</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>828708154.0332394</v>
+        <v>816859664.8609456</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2694,26 +2694,26 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>60983663777.01</v>
+        <v>802871349.4263151</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>811028179.4564723</v>
+        <v>801755064.9374723</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2722,26 +2722,26 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>802871349.4263151</v>
+        <v>107480000</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>801668858.5420231</v>
+        <v>788704900.7558733</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2750,26 +2750,26 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>107480000</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>796326003.0156102</v>
+        <v>781379676.2433544</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>tether gold</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2778,26 +2778,26 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>897877243.8587133</v>
+        <v>246524</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>780317062.593581</v>
+        <v>766850704.4662664</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>tether gold</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2806,26 +2806,26 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>246524</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>765659590.4938563</v>
+        <v>692650683.3817264</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2834,26 +2834,26 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>646145839.5746847</v>
+        <v>310420802.2</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>704079373.1665961</v>
+        <v>687649153.6546053</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2862,26 +2862,26 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>310420802.2</v>
+        <v>43759805521.58257</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>685468164.5941108</v>
+        <v>680045192.3683219</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2890,26 +2890,26 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>43759808799.60193</v>
+        <v>1036889881.760222</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>680364927.73103</v>
+        <v>678733945.6015047</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2918,26 +2918,26 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>1036876078.864371</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>678818981.6070354</v>
+        <v>673817278.850806</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2946,26 +2946,26 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2481357126.223322</v>
+        <v>986061142857000</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>673989427.5158484</v>
+        <v>665111326.8744733</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2974,26 +2974,26 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>986061142857000</v>
+        <v>210371.22</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>662896208.4566578</v>
+        <v>657904697.3275756</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3002,26 +3002,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>210371.22</v>
+        <v>3688810566</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>658968358.7340297</v>
+        <v>638583275.6180601</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3030,26 +3030,26 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3688810566</v>
+        <v>19844809.375</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>637384765.0071368</v>
+        <v>634732366.0605547</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3058,26 +3058,26 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>19844753.125</v>
+        <v>1307677861</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>633674877.0049849</v>
+        <v>626937381.9589421</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3086,26 +3086,26 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>1307661214</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>627354773.718819</v>
+        <v>615602294.8735102</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3114,15 +3114,15 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>5966455361.82</v>
+        <v>1572540589.319017</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>615611382.4723363</v>
+        <v>603982786.9653914</v>
       </c>
     </row>
     <row r="97">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301835405.9816226</v>
+        <v>301827011.9503255</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -3150,18 +3150,18 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>602971122.7621006</v>
+        <v>603256598.4201746</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3170,26 +3170,26 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1572540589.319017</v>
+        <v>179760925.5581076</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>601698908.446556</v>
+        <v>580993082.2828976</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3198,26 +3198,26 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>179760925.5581076</v>
+        <v>15886821</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>577243810.8613765</v>
+        <v>577975481.8337584</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum name service</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3226,26 +3226,26 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>15886821</v>
+        <v>35599404.04</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>575776967.8990471</v>
+        <v>568828997.7816418</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ethereum name service</t>
+          <t>floki</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3254,15 +3254,15 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>35599404.04</v>
+        <v>9626637864609.92</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>569792890.0385989</v>
+        <v>564432126.546084</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1640248960295.137</v>
+        <v>1641207194690.05</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>219789619617.6456</v>
+        <v>220337252974.808</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>144572826467.6962</v>
+        <v>144586473851.1635</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>125186112383.7746</v>
+        <v>125766898323.9508</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>87021319706.73978</v>
+        <v>87094124885.83772</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>64516403178.55221</v>
+        <v>64667504451.95541</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60276486109.2381</v>
+        <v>60234813484.98527</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25302161517.13152</v>
+        <v>25346141527.26547</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23656821536.72506</v>
+        <v>23691787244.09586</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22056184654.80664</v>
+        <v>22064228294.13318</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16957421840.39142</v>
+        <v>16968716904.44786</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10651186259.291</v>
+        <v>10659986060.51545</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9529023335.024099</v>
+        <v>9643303953.745028</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8954351677.307913</v>
+        <v>8967880690.436407</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8872243688.051298</v>
+        <v>8872512198.864807</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8290250469.957115</v>
+        <v>8296295563.330326</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7973734405.471679</v>
+        <v>7992201792.645712</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7505387941.352562</v>
+        <v>7517552122.125976</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7398849788.831738</v>
+        <v>7412444842.72647</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7208477074.015612</v>
+        <v>7217873319.067986</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6522591761.038876</v>
+        <v>6527147267.357023</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6228680426.721601</v>
+        <v>6242045410.163404</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6141160834.478655</v>
+        <v>6140514860.934415</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6107873472.734072</v>
+        <v>6111778234.669128</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6021817337.073693</v>
+        <v>6032029266.771893</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5481735598.327324</v>
+        <v>5481899749.226211</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5363979615.630922</v>
+        <v>5364602397.969604</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5247412114.987248</v>
+        <v>5247501502.827567</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5229989792.725521</v>
+        <v>5237699589.282393</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4233479417.264953</v>
+        <v>4237394546.089977</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4001361012.736164</v>
+        <v>4005469081.424708</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3744779234.83471</v>
+        <v>3752579971.891531</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3243768059.387003</v>
+        <v>3247459454.593124</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3159685052.956359</v>
+        <v>3170749559.195848</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2970917462.368182</v>
+        <v>2973819546.164363</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2907341998.881588</v>
+        <v>2905169116.516918</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2789594008.385526</v>
+        <v>2797454361.216642</v>
       </c>
     </row>
     <row r="39">
@@ -1526,18 +1526,18 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2666121460.414757</v>
+        <v>2667981155.819436</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1546,26 +1546,26 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2588088088.167816</v>
+        <v>482076964.6058819</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2583488274.148527</v>
+        <v>2584064946.91233</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1574,15 +1574,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>482076964.6058819</v>
+        <v>2588088088.167816</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2582013199.236028</v>
+        <v>2583280325.353663</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2532221474.755383</v>
+        <v>2536838011.83516</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2521872817.797315</v>
+        <v>2519332462.853556</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2495770052.606678</v>
+        <v>2502723147.548345</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2128549485.638742</v>
+        <v>2132526451.965802</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2043021774.274465</v>
+        <v>2043751583.772997</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1971238836.024046</v>
+        <v>1974168246.487428</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1957221777.680274</v>
+        <v>1960605547.507264</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1954152336.987284</v>
+        <v>1960187670.166676</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1915660703.827857</v>
+        <v>1917352673.083153</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1909245121.742149</v>
+        <v>1911368024.400052</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1823232881.217984</v>
+        <v>1829675548.528838</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1792330192.613938</v>
+        <v>1794346876.414898</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1684291847.436859</v>
+        <v>1687107422.514118</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1668570286.4069</v>
+        <v>1672487758.068358</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1550235234.23301</v>
+        <v>1552633403.390302</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1544694415.87229</v>
+        <v>1547508740.962107</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1469087030.127876</v>
+        <v>1469108246.962049</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1441217320.271582</v>
+        <v>1444885033.765069</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1365723645.144123</v>
+        <v>1367680428.03329</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1358814431.505489</v>
+        <v>1358888696.507099</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1308274238.493673</v>
+        <v>1311417512.585624</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1224294268.27457</v>
+        <v>1226760960.995248</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1199234070.57269</v>
+        <v>1202451897.854906</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1080840054.789814</v>
+        <v>1083740388.234232</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1061427306.741296</v>
+        <v>1065454198.640723</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1048917900.241988</v>
+        <v>1049250389.066715</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>962710485.1178218</v>
+        <v>962507580.9806228</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>956603267.4592154</v>
+        <v>958571455.1192458</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>951106085.1923677</v>
+        <v>953591446.119048</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>923870272.6281277</v>
+        <v>924549006.9580034</v>
       </c>
     </row>
     <row r="72">
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>889663158.2465116</v>
+        <v>891548861.194496</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>880519521.9775759</v>
+        <v>882787928.7271338</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>880303895.7792685</v>
+        <v>881726841.4225415</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>874659863.1400057</v>
+        <v>876452745.498787</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>873766230.7869549</v>
+        <v>875455769.9508352</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>842221118.0749571</v>
+        <v>843164617.3574919</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>823678060.5475427</v>
+        <v>825090255.409063</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>816859664.8609456</v>
+        <v>815748307.4967141</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>801755064.9374723</v>
+        <v>801762690.4410471</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>788704900.7558733</v>
+        <v>792133992.3010215</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>781379676.2433544</v>
+        <v>781963907.7790666</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>766850704.4662664</v>
+        <v>767207208.6997688</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>692650683.3817264</v>
+        <v>692716043.1744293</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>687649153.6546053</v>
+        <v>689328171.0181694</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>680045192.3683219</v>
+        <v>682073294.9507409</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>678733945.6015047</v>
+        <v>679515144.1914803</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>673817278.850806</v>
+        <v>674628377.5776187</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>665111326.8744733</v>
+        <v>664200063.8926384</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>657904697.3275756</v>
+        <v>658079319.4493791</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>638583275.6180601</v>
+        <v>639076930.0121099</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>634732366.0605547</v>
+        <v>635134845.9482838</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>626937381.9589421</v>
+        <v>629929521.8492606</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>615602294.8735102</v>
+        <v>618044828.8354813</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>603982786.9653914</v>
+        <v>604688115.988225</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>603256598.4201746</v>
+        <v>604192008.2020433</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>580993082.2828976</v>
+        <v>584083082.9055908</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>577975481.8337584</v>
+        <v>578906400.6221349</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>568828997.7816418</v>
+        <v>569217007.7225569</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>564432126.546084</v>
+        <v>566159850.6601783</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/cleaned_data/cleaned_data_name.xlsx
+++ b/src/static/cleaned_data/cleaned_data_name.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>19844146</v>
+        <v>19847109</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1641207194690.05</v>
+        <v>1640947393817.682</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>120654453.5456346</v>
+        <v>120669506.1018684</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>220337252974.808</v>
+        <v>215249874413.7835</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>144182349120.787</v>
+        <v>144086679997.8651</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>144586473851.1635</v>
+        <v>144158095118.3066</v>
       </c>
     </row>
     <row r="5">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58205697378</v>
+        <v>58274974538</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>125766898323.9508</v>
+        <v>123856459652.5373</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>87094124885.83772</v>
+        <v>85330156862.03966</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>512293263.8307307</v>
+        <v>514580874.0812798</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>64667504451.95541</v>
+        <v>60631972808.48112</v>
       </c>
     </row>
     <row r="8">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>60236504303.70195</v>
+        <v>60542738459.47311</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>60234813484.98527</v>
+        <v>60580848078.27862</v>
       </c>
     </row>
     <row r="9">
@@ -678,7 +678,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>148646376383.7053</v>
+        <v>148726896383.7053</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25346141527.26547</v>
+        <v>24928070555.01196</v>
       </c>
     </row>
     <row r="10">
@@ -706,7 +706,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>35242104181.18973</v>
+        <v>35274323538.58242</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>23691787244.09586</v>
+        <v>22865065662.87445</v>
       </c>
     </row>
     <row r="11">
@@ -734,7 +734,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>94994333997.78676</v>
+        <v>94979760468.11975</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>22064228294.13318</v>
+        <v>22589315819.80436</v>
       </c>
     </row>
     <row r="12">
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>9369845.35495159</v>
+        <v>9370151.382689711</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>16968716904.44786</v>
+        <v>16756059889.45142</v>
       </c>
     </row>
     <row r="13">
@@ -798,18 +798,18 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>10659986060.51545</v>
+        <v>10656411369.05735</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -818,26 +818,26 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2484542062.423414</v>
+        <v>657099970.4527867</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>9643303953.745028</v>
+        <v>8301534641.617059</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus sed leo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,26 +846,26 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>657099970.4527867</v>
+        <v>923789528.9</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>8967880690.436407</v>
+        <v>8287333804.12958</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>unus sed leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -874,15 +874,15 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>923836227.9</v>
+        <v>2473132255.316453</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>8872512198.864807</v>
+        <v>8008955118.083139</v>
       </c>
     </row>
     <row r="17">
@@ -902,7 +902,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30787176939.11807</v>
+        <v>30779409432.82857</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>8296295563.330326</v>
+        <v>7740402090.25596</v>
       </c>
     </row>
     <row r="18">
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>414849355.3863751</v>
+        <v>415273896.7471752</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>7992201792.645712</v>
+        <v>7421393045.909735</v>
       </c>
     </row>
     <row r="19">
@@ -958,7 +958,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3169845047.483888</v>
+        <v>3249982900.458888</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>7517552122.125976</v>
+        <v>7154162377.151512</v>
       </c>
     </row>
     <row r="20">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>589250806511191.1</v>
+        <v>589250627619579.1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>7412444842.72647</v>
+        <v>7147241252.32664</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>7217873319.067986</v>
+        <v>6773147434.836636</v>
       </c>
     </row>
     <row r="22">
@@ -1050,18 +1050,18 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6527147267.357023</v>
+        <v>6214608667.269344</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1070,15 +1070,15 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1522267060</v>
+        <v>974778351.8199997</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6242045410.163404</v>
+        <v>6090681214.871244</v>
       </c>
     </row>
     <row r="24">
@@ -1106,18 +1106,18 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6140514860.934415</v>
+        <v>6037505674.574191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mantra</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1126,15 +1126,15 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>974778351.8199997</v>
+        <v>1522267060</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>https://polkascan.io/polkadot</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>6111778234.669128</v>
+        <v>5957644230.707152</v>
       </c>
     </row>
     <row r="26">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>19849190.625</v>
+        <v>19851893.75</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1162,18 +1162,18 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>6032029266.771893</v>
+        <v>5911180444.764046</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>bitget token</t>
+          <t>bitcoin bep2</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1182,15 +1182,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1200000000</v>
+        <v>65207.71856383</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>https://explorer.binance.org/asset/BTCB-1DE</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>5481899749.226211</v>
+        <v>5392816778.691422</v>
       </c>
     </row>
     <row r="28">
@@ -1218,18 +1218,18 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>5364602397.969604</v>
+        <v>5364356996.471352</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ethena usde</t>
+          <t>bitget token</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1238,26 +1238,26 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5247294871.915874</v>
+        <v>1200000000</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>5247501502.827567</v>
+        <v>5313756912.559417</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena usde</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1266,26 +1266,26 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6773820584.991654</v>
+        <v>5235230043.685924</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>etherscan.io</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>5237699589.282393</v>
+        <v>5230008555.208168</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1294,15 +1294,15 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>333928180</v>
+        <v>6817635541.724001</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>https://blockexplorer.minepi.com/</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>4237394546.089977</v>
+        <v>4263408751.311755</v>
       </c>
     </row>
     <row r="32">
@@ -1330,18 +1330,18 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4005469081.424708</v>
+        <v>3989850292.493952</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1350,26 +1350,26 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>628494054.71</v>
+        <v>333928180</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>3752579971.891531</v>
+        <v>3866680214.160154</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1378,26 +1378,26 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>604052367.6645604</v>
+        <v>628494054.71</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>3247459454.593124</v>
+        <v>3645016473.762324</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>near protocol</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1406,15 +1406,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1198396448</v>
+        <v>60000000</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>3170749559.195848</v>
+        <v>3045191332.409575</v>
       </c>
     </row>
     <row r="36">
@@ -1442,18 +1442,18 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2973819546.164363</v>
+        <v>2942353997.07699</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1462,26 +1462,26 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>60000000</v>
+        <v>1199614769</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>https://explorer.nearprotocol.com/</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2905169116.516918</v>
+        <v>2918659484.347632</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cronos</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1490,26 +1490,26 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>26571560696</v>
+        <v>604650885.7836708</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>https://explorer.aptoslabs.com/</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>2797454361.216642</v>
+        <v>2906826188.560305</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1518,26 +1518,26 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>3364694382.836841</v>
+        <v>3159107529</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>2667981155.819436</v>
+        <v>2537686913.828478</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>internet computer</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1546,26 +1546,26 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>482076964.6058819</v>
+        <v>3364694382.836841</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>https://mantlescan.xyz/</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>2584064946.91233</v>
+        <v>2472288237.151125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>first digital usd</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1574,26 +1574,26 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2588088088.167816</v>
+        <v>26571560696</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>2583280325.353663</v>
+        <v>2438706652.046941</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ondo</t>
+          <t>ethereum classic</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1602,26 +1602,26 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>3159107529</v>
+        <v>151402073.8391831</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>2536838011.83516</v>
+        <v>2410455043.483909</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ethereum classic</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1630,15 +1630,15 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>151323700.0354662</v>
+        <v>482992475.5035915</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://www.dfinityexplorer.org/#/</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>2519332462.853556</v>
+        <v>2409718460.65511</v>
       </c>
     </row>
     <row r="44">
@@ -1658,7 +1658,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>15094302.18303862</v>
+        <v>15097419.54581311</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1666,18 +1666,18 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2502723147.548345</v>
+        <v>2276313816.177361</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pol (prev. matic)</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1686,26 +1686,26 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>10392099602.65343</v>
+        <v>2188129088.971388</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2132526451.965802</v>
+        <v>2167216976.160685</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>trump official</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1714,26 +1714,26 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>199999429.080876</v>
+        <v>10398846835.30775</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2043751583.772997</v>
+        <v>1960010209.959289</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1742,26 +1742,26 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5285937500</v>
+        <v>390934204</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://www.mintscan.io/</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1974168246.487428</v>
+        <v>1909108997.370275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1770,26 +1770,26 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>85985041177</v>
+        <v>85826595.39596003</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>1960605547.507264</v>
+        <v>1902954098.709694</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1798,26 +1798,26 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>8534124</v>
+        <v>85985041177</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1960187670.166676</v>
+        <v>1852770939.779766</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1826,26 +1826,26 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>85826705.19218351</v>
+        <v>8561026</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1917352673.083153</v>
+        <v>1837178611.95682</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1854,26 +1854,26 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>580696175.3830049</v>
+        <v>199999426.572416</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1911368024.400052</v>
+        <v>1834176331.883903</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>517716590.0562826</v>
+        <v>5553125000</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>1829675548.528838</v>
+        <v>1762693781.182519</v>
       </c>
     </row>
     <row r="53">
@@ -1910,7 +1910,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>646157090</v>
+        <v>647198730</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1918,18 +1918,18 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1794346876.414898</v>
+        <v>1733507718.74659</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1938,26 +1938,26 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>390934204</v>
+        <v>25974676335.93573</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1687107422.514118</v>
+        <v>1662632166.518711</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>render</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1966,26 +1966,26 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>25943375617.3953</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1672487758.068358</v>
+        <v>1614687515.518231</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1994,26 +1994,26 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>8530799349.038621</v>
+        <v>587939919.143268</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1552633403.390302</v>
+        <v>1564890099.09053</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2022,26 +2022,26 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>4617913336</v>
+        <v>8558582711.311396</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>1547508740.962107</v>
+        <v>1554675043.246706</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>sonic (prev. ftm)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2050,26 +2050,26 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>83733353.16057506</v>
+        <v>2880000000</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1469108246.962049</v>
+        <v>1430862496.359953</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>sonic (prev. ftm)</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2078,26 +2078,26 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2880000000</v>
+        <v>4617913336</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1444885033.765069</v>
+        <v>1420139889.837924</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>story</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2106,26 +2106,26 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>258757414</v>
+        <v>125043917.8513356</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>1367680428.03329</v>
+        <v>1250314144.498425</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>kucoin token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2134,26 +2134,26 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>122543917.8513356</v>
+        <v>83733353.16057506</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1358888696.507099</v>
+        <v>1218685268.666914</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2162,15 +2162,15 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2690911111.1</v>
+        <v>1556969728.9434</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1311417512.585624</v>
+        <v>1205158133.149357</v>
       </c>
     </row>
     <row r="63">
@@ -2198,18 +2198,18 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1226760960.995248</v>
+        <v>1119318979.06826</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>artificial superintelligence alliance</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2218,26 +2218,26 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2520000000</v>
+        <v>848074.4183746701</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1202451897.854906</v>
+        <v>1119230092.43186</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>story</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2246,26 +2246,26 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>848074.4183746701</v>
+        <v>259183351</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1083740388.234232</v>
+        <v>1091841682.115349</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>artificial superintelligence alliance</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2274,15 +2274,15 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>2450000000</v>
+        <v>2520000000</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1065454198.640723</v>
+        <v>1081287431.203232</v>
       </c>
     </row>
     <row r="67">
@@ -2310,18 +2310,18 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1049250389.066715</v>
+        <v>1070137974.746417</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>immutable x</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2330,26 +2330,26 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1768317543.39</v>
+        <v>2690911111.1</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>962507580.9806228</v>
+        <v>1048220976.685413</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>worldcoin</t>
+          <t>wrapped bnb</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2358,26 +2358,26 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1214684893.749747</v>
+        <v>1582884.53984804</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>958571455.1192458</v>
+        <v>962080899.7877512</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2386,26 +2386,26 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1519244275.49944</v>
+        <v>2450000000</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>953591446.119048</v>
+        <v>910384172.1294544</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>worldcoin</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2414,26 +2414,26 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1555739230.6061</v>
+        <v>1231343181.02401</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>924549006.9580034</v>
+        <v>909904018.3320904</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>usual usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2442,15 +2442,15 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>898876668.3664446</v>
+        <v>1520164889.82529</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>896443286.330442</v>
+        <v>904876589.9150746</v>
       </c>
     </row>
     <row r="73">
@@ -2478,18 +2478,18 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>891548861.194496</v>
+        <v>858000195.3501078</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>four</t>
+          <t>usual usd</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2498,26 +2498,26 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>381867255.144574</v>
+        <v>824686961.8233137</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>882787928.7271338</v>
+        <v>822680424.6990434</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>the graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2526,26 +2526,26 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>9775189789.318211</v>
+        <v>12072738</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>881726841.4225415</v>
+        <v>818843419.3602854</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>four</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>4882361111</v>
+        <v>381867255.144574</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>876452745.498787</v>
+        <v>803880666.8217182</v>
       </c>
     </row>
     <row r="77">
@@ -2590,18 +2590,18 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>875455769.9508352</v>
+        <v>802426773.4879464</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2610,26 +2610,26 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>12072738</v>
+        <v>4882361111</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>843164617.3574919</v>
+        <v>794629792.2037613</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>theta network</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2638,26 +2638,26 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>1000000000</v>
+        <v>60983663777.01</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>825090255.409063</v>
+        <v>793870937.8793805</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>the graph</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2666,26 +2666,26 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>60983663777.01</v>
+        <v>9775189789.318211</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>815748307.4967141</v>
+        <v>788212152.4479779</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>paypal usd</t>
+          <t>theta network</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2694,26 +2694,26 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>802871349.4263151</v>
+        <v>1000000000</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>801762690.4410471</v>
+        <v>768564979.5110044</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>107480000</v>
+        <v>1768317543.39</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2730,18 +2730,18 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>792133992.3010215</v>
+        <v>756586661.239606</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>lido dao</t>
+          <t>tether gold</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2750,26 +2750,26 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>897877243.8587133</v>
+        <v>246524</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>781963907.7790666</v>
+        <v>751792096.1931798</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>tether gold</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2778,26 +2778,26 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>246524</v>
+        <v>897877243.8587133</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>767207208.6997688</v>
+        <v>739977781.4038349</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2806,26 +2806,26 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>646145839.5746847</v>
+        <v>733086867.397647</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>692716043.1744293</v>
+        <v>732126248.4774195</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2834,26 +2834,26 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>310420802.2</v>
+        <v>1037953209.91073</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>689328171.0181694</v>
+        <v>677264286.4946783</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2862,26 +2862,26 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>43759805521.58257</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>682073294.9507409</v>
+        <v>673046854.825256</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2890,26 +2890,26 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>1036889881.760222</v>
+        <v>2481357126.223322</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>679515144.1914803</v>
+        <v>646634535.3639997</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>the sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2918,26 +2918,26 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2481357126.223322</v>
+        <v>43851266304.44282</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>674628377.5776187</v>
+        <v>643745590.7862873</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>bittorrent [new]</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2946,26 +2946,26 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>986061142857000</v>
+        <v>210371.22</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>664200063.8926384</v>
+        <v>643367637.3628504</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>pax gold</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2974,26 +2974,26 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>210371.22</v>
+        <v>5966455361.82</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>658079319.4493791</v>
+        <v>636422358.7523525</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3002,26 +3002,26 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3688810566</v>
+        <v>1310978944</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>639076930.0121099</v>
+        <v>628612699.3910688</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>bitcoin sv</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3030,26 +3030,26 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>19844809.375</v>
+        <v>986061142857000</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>635134845.9482838</v>
+        <v>621665728.3100299</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>curve dao token</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3058,26 +3058,26 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>1307677861</v>
+        <v>3707948285</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>629929521.8492606</v>
+        <v>608386041.1970594</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3086,26 +3086,26 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5966455361.82</v>
+        <v>15886821</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>618044828.8354813</v>
+        <v>603962021.5764953</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3114,26 +3114,26 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1572540589.319017</v>
+        <v>107480000</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>604688115.988225</v>
+        <v>601823911.1512188</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3142,26 +3142,26 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>301827011.9503255</v>
+        <v>19847437.5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>604192008.2020433</v>
+        <v>599408070.5143515</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3170,26 +3170,26 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>179760925.5581076</v>
+        <v>1574016688.191111</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>584083082.9055908</v>
+        <v>576745506.6377685</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3198,26 +3198,26 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>15886821</v>
+        <v>313001722</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>578906400.6221349</v>
+        <v>538878999.934909</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ethereum name service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3226,15 +3226,15 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>35599404.04</v>
+        <v>295586537.9426779</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>569217007.7225569</v>
+        <v>532855478.9560041</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>566159850.6601783</v>
+        <v>529624400.140036</v>
       </c>
     </row>
   </sheetData>
